--- a/medicine/Mort/Cimetière_militaire_allemand_de_Soupir/Cimetière_militaire_allemand_de_Soupir.xlsx
+++ b/medicine/Mort/Cimetière_militaire_allemand_de_Soupir/Cimetière_militaire_allemand_de_Soupir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_allemand_de_Soupir</t>
+          <t>Cimetière_militaire_allemand_de_Soupir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cimetière militaire allemand de Soupir est un cimetière militaire de la Première Guerre mondiale, situés sur le territoire de la commune de Soupir, dans le département de l'Aisne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_allemand_de_Soupir</t>
+          <t>Cimetière_militaire_allemand_de_Soupir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière allemand de soupir a été édifié en 1920 par l’État français sur l'emplacement d'un ancien hôpital de l'armée française. Des tombes provenant de 143 lieux différents y furent transférées jusque 1924[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière allemand de soupir a été édifié en 1920 par l’État français sur l'emplacement d'un ancien hôpital de l'armée française. Des tombes provenant de 143 lieux différents y furent transférées jusque 1924.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_allemand_de_Soupir</t>
+          <t>Cimetière_militaire_allemand_de_Soupir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière allemand est situé en bordure de la R.D.925, il rassemble les corps de soldats morts dans le secteur allant de Soissons à Reims : Chemin des Dames, Vesle et Marne, morts  en 1914, 1917 et 1918 principalement.
-11 089 corps  sont inhumés dans ce cimetière, 5 134 dans des tombes individuelles matérialisées par des croix en pierre (dont 19 ne sont pas identifiés) et 5 955 inhumés dans un ossuaire dont 794 sont identifiés[1].
+11 089 corps  sont inhumés dans ce cimetière, 5 134 dans des tombes individuelles matérialisées par des croix en pierre (dont 19 ne sont pas identifiés) et 5 955 inhumés dans un ossuaire dont 794 sont identifiés.
 </t>
         </is>
       </c>
